--- a/data_year/zb/金融业/社会融资规模及构成.xlsx
+++ b/data_year/zb/金融业/社会融资规模及构成.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,582 +478,404 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18475.01</v>
+        <v>79451</v>
       </c>
       <c r="C2" t="n">
-        <v>366.5</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>11063</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3865</v>
+      </c>
       <c r="E2" t="n">
-        <v>730.529414</v>
+        <v>4855</v>
       </c>
       <c r="F2" t="n">
-        <v>175.299752</v>
+        <v>8748</v>
       </c>
       <c r="G2" t="n">
-        <v>-694.61</v>
+        <v>23346</v>
       </c>
       <c r="H2" t="n">
-        <v>20112.111201</v>
+        <v>140191</v>
       </c>
       <c r="I2" t="n">
-        <v>627.73</v>
+        <v>5786</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27651.67</v>
+        <v>74715</v>
       </c>
       <c r="C3" t="n">
-        <v>499.21018</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>13658</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2034</v>
+      </c>
       <c r="E3" t="n">
-        <v>2285.037643</v>
+        <v>5712</v>
       </c>
       <c r="F3" t="n">
-        <v>600.553925</v>
+        <v>12962</v>
       </c>
       <c r="G3" t="n">
-        <v>2010.36</v>
+        <v>10271</v>
       </c>
       <c r="H3" t="n">
-        <v>34113.2201665571</v>
+        <v>128286</v>
       </c>
       <c r="I3" t="n">
-        <v>559.4228985571</v>
+        <v>4377</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22673.28</v>
+        <v>82038</v>
       </c>
       <c r="C4" t="n">
-        <v>466.79098</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>22551</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12845</v>
+      </c>
       <c r="E4" t="n">
-        <v>1381.176542</v>
+        <v>9163</v>
       </c>
       <c r="F4" t="n">
-        <v>3117.671211</v>
+        <v>12838</v>
       </c>
       <c r="G4" t="n">
-        <v>-289.71</v>
+        <v>10499</v>
       </c>
       <c r="H4" t="n">
-        <v>28629.153531408</v>
+        <v>157631</v>
       </c>
       <c r="I4" t="n">
-        <v>673.000535408</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23543.82</v>
+        <v>88916</v>
       </c>
       <c r="C5" t="n">
-        <v>2009.5</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>18111</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18404</v>
+      </c>
       <c r="E5" t="n">
-        <v>1415.283706</v>
+        <v>5848</v>
       </c>
       <c r="F5" t="n">
-        <v>1961.456676</v>
+        <v>25466</v>
       </c>
       <c r="G5" t="n">
-        <v>23.57</v>
+        <v>7756</v>
       </c>
       <c r="H5" t="n">
-        <v>30007.913488</v>
+        <v>173169</v>
       </c>
       <c r="I5" t="n">
-        <v>339.0251</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31522.52</v>
+        <v>97452</v>
       </c>
       <c r="C6" t="n">
-        <v>2309.77</v>
+        <v>24329</v>
       </c>
       <c r="D6" t="n">
-        <v>825.242769</v>
+        <v>5174</v>
       </c>
       <c r="E6" t="n">
-        <v>1459.2430221851</v>
+        <v>1235</v>
       </c>
       <c r="F6" t="n">
-        <v>2695.2427</v>
+        <v>21740</v>
       </c>
       <c r="G6" t="n">
-        <v>1500.01</v>
+        <v>-1198</v>
       </c>
       <c r="H6" t="n">
-        <v>42696.3199185334</v>
+        <v>158761</v>
       </c>
       <c r="I6" t="n">
-        <v>1536.3332293483</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36322.5</v>
+        <v>112693</v>
       </c>
       <c r="C7" t="n">
-        <v>2284.03</v>
+        <v>29388</v>
       </c>
       <c r="D7" t="n">
-        <v>1702.46864</v>
+        <v>434</v>
       </c>
       <c r="E7" t="n">
-        <v>3864.4600272833</v>
+        <v>-6427</v>
       </c>
       <c r="F7" t="n">
-        <v>3371.328447</v>
+        <v>15911</v>
       </c>
       <c r="G7" t="n">
-        <v>6701.35</v>
+        <v>-10567</v>
       </c>
       <c r="H7" t="n">
-        <v>59663.2714836465</v>
+        <v>154063</v>
       </c>
       <c r="I7" t="n">
-        <v>4333.2338483632</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>49041.23</v>
+        <v>124372</v>
       </c>
       <c r="C8" t="n">
-        <v>5522.76</v>
+        <v>29865</v>
       </c>
       <c r="D8" t="n">
-        <v>3144.375965</v>
+        <v>8593</v>
       </c>
       <c r="E8" t="n">
-        <v>1946.9379338834</v>
+        <v>-5640</v>
       </c>
       <c r="F8" t="n">
-        <v>4261.664021</v>
+        <v>21854</v>
       </c>
       <c r="G8" t="n">
-        <v>1064.47</v>
+        <v>-19514</v>
       </c>
       <c r="H8" t="n">
-        <v>69802.1356311393</v>
+        <v>177999</v>
       </c>
       <c r="I8" t="n">
-        <v>3323.8719002559</v>
+        <v>12416</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>95941.6322723074</v>
+        <v>138432</v>
       </c>
       <c r="C9" t="n">
-        <v>12366.78</v>
+        <v>6244</v>
       </c>
       <c r="D9" t="n">
-        <v>4363.641434</v>
+        <v>22232</v>
       </c>
       <c r="E9" t="n">
-        <v>9264.644407854399</v>
+        <v>18</v>
       </c>
       <c r="F9" t="n">
-        <v>6779.530928</v>
+        <v>7994</v>
       </c>
       <c r="G9" t="n">
-        <v>4606.1583090253</v>
+        <v>5364</v>
       </c>
       <c r="H9" t="n">
-        <v>139104.391775481</v>
+        <v>261536</v>
       </c>
       <c r="I9" t="n">
-        <v>3349.86593777</v>
+        <v>8759</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>79451.1230679194</v>
+        <v>156712</v>
       </c>
       <c r="C10" t="n">
-        <v>11062.5215</v>
+        <v>26318</v>
       </c>
       <c r="D10" t="n">
-        <v>3865.067003</v>
+        <v>-6975</v>
       </c>
       <c r="E10" t="n">
-        <v>4854.5198685207</v>
+        <v>-4201</v>
       </c>
       <c r="F10" t="n">
-        <v>8748.176375999999</v>
+        <v>-16062</v>
       </c>
       <c r="G10" t="n">
-        <v>23345.648109984</v>
+        <v>-6343</v>
       </c>
       <c r="H10" t="n">
-        <v>140191.047596653</v>
+        <v>224920</v>
       </c>
       <c r="I10" t="n">
-        <v>5786.48</v>
+        <v>3606</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>74715.4743787374</v>
+        <v>168835</v>
       </c>
       <c r="C11" t="n">
-        <v>13657.66</v>
+        <v>33384</v>
       </c>
       <c r="D11" t="n">
-        <v>2034.1680164</v>
+        <v>-3467</v>
       </c>
       <c r="E11" t="n">
-        <v>5712.1828240548</v>
+        <v>-1275</v>
       </c>
       <c r="F11" t="n">
-        <v>12961.5372928542</v>
+        <v>-9396</v>
       </c>
       <c r="G11" t="n">
-        <v>10270.9143886544</v>
+        <v>-4757</v>
       </c>
       <c r="H11" t="n">
-        <v>128286.07086372</v>
+        <v>256735</v>
       </c>
       <c r="I11" t="n">
-        <v>4376.79</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>82037.6266203772</v>
+        <v>200310</v>
       </c>
       <c r="C12" t="n">
-        <v>22551.010019</v>
+        <v>43748</v>
       </c>
       <c r="D12" t="n">
-        <v>12845.4423096</v>
+        <v>-11020</v>
       </c>
       <c r="E12" t="n">
-        <v>9162.992718850001</v>
+        <v>1450</v>
       </c>
       <c r="F12" t="n">
-        <v>12837.6666901317</v>
+        <v>-3954</v>
       </c>
       <c r="G12" t="n">
-        <v>10498.8238575387</v>
+        <v>1746</v>
       </c>
       <c r="H12" t="n">
-        <v>157631.266516801</v>
+        <v>347917</v>
       </c>
       <c r="I12" t="n">
-        <v>2507.85</v>
+        <v>8923</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88916.2177970827</v>
+        <v>199403</v>
       </c>
       <c r="C13" t="n">
-        <v>18111.17974</v>
+        <v>32866</v>
       </c>
       <c r="D13" t="n">
-        <v>18403.8233900615</v>
+        <v>-20074</v>
       </c>
       <c r="E13" t="n">
-        <v>5847.9317493314</v>
+        <v>1715</v>
       </c>
       <c r="F13" t="n">
-        <v>25465.8134565578</v>
+        <v>-1696</v>
       </c>
       <c r="G13" t="n">
-        <v>7755.6554120474</v>
+        <v>-4916</v>
       </c>
       <c r="H13" t="n">
-        <v>173168.86944334</v>
+        <v>313407</v>
       </c>
       <c r="I13" t="n">
-        <v>2218.72</v>
+        <v>12133</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>97451.9845540149</v>
+        <v>209149</v>
       </c>
       <c r="C14" t="n">
-        <v>24328.692172</v>
+        <v>20508</v>
       </c>
       <c r="D14" t="n">
-        <v>5174.1636636108</v>
+        <v>-6003</v>
       </c>
       <c r="E14" t="n">
-        <v>1235.1398746187</v>
+        <v>-5254</v>
       </c>
       <c r="F14" t="n">
-        <v>21739.8754557234</v>
+        <v>3579</v>
       </c>
       <c r="G14" t="n">
-        <v>-1198.2409014955</v>
+        <v>-3411</v>
       </c>
       <c r="H14" t="n">
-        <v>158760.804390117</v>
+        <v>320101</v>
       </c>
       <c r="I14" t="n">
-        <v>4349.62</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>112692.903257009</v>
-      </c>
-      <c r="C15" t="n">
-        <v>29388.119979</v>
-      </c>
-      <c r="D15" t="n">
-        <v>433.7365653544</v>
-      </c>
-      <c r="E15" t="n">
-        <v>-6427.1275524419</v>
-      </c>
-      <c r="F15" t="n">
-        <v>15911.4006433468</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-10567.1103836489</v>
-      </c>
-      <c r="H15" t="n">
-        <v>154063.408016402</v>
-      </c>
-      <c r="I15" t="n">
-        <v>7589.84</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>124372.365884501</v>
-      </c>
-      <c r="C16" t="n">
-        <v>29865</v>
-      </c>
-      <c r="D16" t="n">
-        <v>8592.904610028399</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-5639.577773088</v>
-      </c>
-      <c r="F16" t="n">
-        <v>21854.2904272785</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-19514.1128639216</v>
-      </c>
-      <c r="H16" t="n">
-        <v>177999</v>
-      </c>
-      <c r="I16" t="n">
-        <v>12415.56</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>138432.388671782</v>
-      </c>
-      <c r="C17" t="n">
-        <v>6244.35150266</v>
-      </c>
-      <c r="D17" t="n">
-        <v>22232.2032912509</v>
-      </c>
-      <c r="E17" t="n">
-        <v>18.058100051</v>
-      </c>
-      <c r="F17" t="n">
-        <v>7993.5636202586</v>
-      </c>
-      <c r="G17" t="n">
-        <v>5363.9120973683</v>
-      </c>
-      <c r="H17" t="n">
-        <v>261535.862767119</v>
-      </c>
-      <c r="I17" t="n">
-        <v>8758.67</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>156712.410737959</v>
-      </c>
-      <c r="C18" t="n">
-        <v>26317.5808428278</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-6975.3048908468</v>
-      </c>
-      <c r="E18" t="n">
-        <v>-4201.3975104178</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-16061.7142949895</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-6342.9274505233</v>
-      </c>
-      <c r="H18" t="n">
-        <v>224920.182902791</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3605.502</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>168834.906145055</v>
-      </c>
-      <c r="C19" t="n">
-        <v>33383.5893912604</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-3466.672646563</v>
-      </c>
-      <c r="E19" t="n">
-        <v>-1275.2196449133</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-9395.705462256599</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-4756.7629456253</v>
-      </c>
-      <c r="H19" t="n">
-        <v>256735.101680277</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3478.57</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>200309.84</v>
-      </c>
-      <c r="C20" t="n">
-        <v>43748.14</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-11019.84</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1449.82</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-3954.27</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1745.88</v>
-      </c>
-      <c r="H20" t="n">
-        <v>347917.46</v>
-      </c>
-      <c r="I20" t="n">
-        <v>8922.790000000001</v>
+        <v>11757</v>
       </c>
     </row>
   </sheetData>
